--- a/public/scenelist_form.xlsx
+++ b/public/scenelist_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahar\Desktop\call-sheet-generator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +39,19 @@
     <t>D/N</t>
   </si>
   <si>
-    <t>내용</t>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;제목&gt; SceneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -237,13 +242,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,13 +318,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +616,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,19 +625,20 @@
     <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="62.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -603,11 +654,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -616,7 +669,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -625,7 +678,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="7"/>
     </row>
   </sheetData>
